--- a/biology/Mycologie/Scléroderme/Scléroderme.xlsx
+++ b/biology/Mycologie/Scléroderme/Scléroderme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scl%C3%A9roderme</t>
+          <t>Scléroderme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scléroderme
 Scleroderma, les Sclérodermes, est un genre de champignons gastéroïdes basidiomycètes de la famille des Sclerodermataceae. Malgré le manque de pied et de tubes, les sclérodermes appartiennent à l'ordre des Boletales. On relève une trentaine d'espèces. Ils sont utilisés frauduleusement pour remplacer la truffe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scl%C3%A9roderme</t>
+          <t>Scléroderme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Leur nom a été tiré du grec Skleros, "dur" et Derma, "peau".
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur nom a été tiré du grec Skleros, "dur" et Derma, "peau".
 L'espèce type est Scleroderma verrucosum mais l'espèce la plus courante est Scleroderma citrinum.
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scl%C3%A9roderme</t>
+          <t>Scléroderme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont caractérisés par une forme gastéroïde (en forme d'estomac), une enveloppe plus ou moins épaisse : le peridium, et son intérieur : la glèbe.
 </t>
@@ -558,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scl%C3%A9roderme</t>
+          <t>Scléroderme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +595,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comestible médiocre (à l'état jeune).
-Utilisation frauduleuse
-Sa consistance, sa comestibilité, sa forme et le fait qu'ils sont faciles à trouver en font un produit de choix pour être vendu pour de la truffe. En effet, trempé dans du jus de truffe, découpé en de minuscules petits dés, il peut parfaitement donner l'illusion de petits morceaux de truffe utilisés dans les foies gras[1]. Un examen au microscope permet rapidement de dévoiler l'escroquerie[2].
 </t>
         </is>
       </c>
@@ -591,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scl%C3%A9roderme</t>
+          <t>Scléroderme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +625,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Consommation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation frauduleuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa consistance, sa comestibilité, sa forme et le fait qu'ils sont faciles à trouver en font un produit de choix pour être vendu pour de la truffe. En effet, trempé dans du jus de truffe, découpé en de minuscules petits dés, il peut parfaitement donner l'illusion de petits morceaux de truffe utilisés dans les foies gras. Un examen au microscope permet rapidement de dévoiler l'escroquerie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Scléroderme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scl%C3%A9roderme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Scleroderma albidum
